--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA CrackerSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63788409-3C2F-4CE0-B601-AE6377F27AF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0188E01B-3E6B-43D8-8EB9-778C7E7394B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="C199" sqref="C199"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3935,7 +3935,7 @@
         <v>193</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="21">
@@ -3957,7 +3957,7 @@
         <v>195</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0188E01B-3E6B-43D8-8EB9-778C7E7394B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDC5520-A4A3-4C1F-B63E-05902D27ECE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="C200" sqref="C200"/>
+      <selection activeCell="C205" sqref="C205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3979,7 +3979,7 @@
         <v>197</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="21">
@@ -3990,7 +3990,7 @@
         <v>198</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="21">
@@ -4001,7 +4001,7 @@
         <v>199</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="21">
@@ -4012,7 +4012,7 @@
         <v>200</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDC5520-A4A3-4C1F-B63E-05902D27ECE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399D1685-DDC3-4DCC-8926-DED39CC61517}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="C205" sqref="C205"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="C206" sqref="C206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4023,7 +4023,7 @@
         <v>201</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="21">
@@ -4349,7 +4349,7 @@
         <v>231</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399D1685-DDC3-4DCC-8926-DED39CC61517}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3309A46C-7725-4F60-9872-DEE74DB7CF57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="C206" sqref="C206"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="B207" sqref="B207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3968,7 +3968,7 @@
         <v>196</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="21">
@@ -4034,7 +4034,7 @@
         <v>202</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="21">
@@ -4045,7 +4045,7 @@
         <v>203</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="21">
@@ -4056,7 +4056,7 @@
         <v>204</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="21">
@@ -4067,7 +4067,7 @@
         <v>205</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="21">
@@ -4078,7 +4078,7 @@
         <v>206</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3309A46C-7725-4F60-9872-DEE74DB7CF57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642EB27A-3233-4C0C-BC4E-5BE5480E4394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="B207" sqref="B207"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642EB27A-3233-4C0C-BC4E-5BE5480E4394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E924B8-51F9-4DC4-A9C8-EBF0424ECD77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="C216" sqref="C216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4099,7 +4099,7 @@
         <v>208</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="21">
@@ -4110,7 +4110,7 @@
         <v>209</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="21">
@@ -4121,7 +4121,7 @@
         <v>210</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E924B8-51F9-4DC4-A9C8-EBF0424ECD77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BE199D-F9E2-457D-BB1A-A8A29D997B8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="C216" sqref="C216"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="C220" sqref="C220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4132,7 +4132,7 @@
         <v>211</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="21">
@@ -4143,7 +4143,7 @@
         <v>212</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="21">
@@ -4154,7 +4154,7 @@
         <v>213</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="21">
@@ -4165,7 +4165,7 @@
         <v>214</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BE199D-F9E2-457D-BB1A-A8A29D997B8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4CA4A0-3F83-46A5-88A2-70581ABD5201}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="C220" sqref="C220"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="C226" sqref="C226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4176,7 +4176,7 @@
         <v>215</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="21">
@@ -4187,7 +4187,7 @@
         <v>216</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="21">
@@ -4198,7 +4198,7 @@
         <v>217</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="21">
@@ -4220,7 +4220,7 @@
         <v>219</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="21">
@@ -4231,7 +4231,7 @@
         <v>220</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4CA4A0-3F83-46A5-88A2-70581ABD5201}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86289BF7-8850-4643-A192-28D3B1CD8C1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="C226" sqref="C226"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="C229" sqref="C229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4242,7 +4242,7 @@
         <v>221</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="21">
@@ -4264,7 +4264,7 @@
         <v>223</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86289BF7-8850-4643-A192-28D3B1CD8C1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C43495C-8B4D-4CA3-967C-30F346D99D65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="C229" sqref="C229"/>
+      <selection activeCell="C224" sqref="C224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4209,7 +4209,7 @@
         <v>218</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C43495C-8B4D-4CA3-967C-30F346D99D65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD067B28-6DA9-4926-B5D9-E22AC63E027E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="C224" sqref="C224"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="C275" sqref="C275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4253,7 +4253,7 @@
         <v>222</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="21">
@@ -4275,7 +4275,7 @@
         <v>224</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="21">
@@ -4742,7 +4742,7 @@
         <v>266</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD067B28-6DA9-4926-B5D9-E22AC63E027E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C759D1EB-9D59-4E53-845A-7019C6C0D164}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="C275" sqref="C275"/>
+      <selection activeCell="C276" sqref="C276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4753,7 +4753,7 @@
         <v>267</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C759D1EB-9D59-4E53-845A-7019C6C0D164}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4CBD3D-6B1D-4FBC-BB26-E68AB07D242A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="C276" sqref="C276"/>
+      <selection activeCell="C277" sqref="C277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4764,7 +4764,7 @@
         <v>268</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4CBD3D-6B1D-4FBC-BB26-E68AB07D242A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135A2434-6365-497B-9887-56D8F3A72F52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="C277" sqref="C277"/>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="C296" sqref="C296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4959,7 +4959,7 @@
         <v>286</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135A2434-6365-497B-9887-56D8F3A72F52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0AA060-6DCE-4B79-B392-4C4C3C78119F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="C296" sqref="C296"/>
+    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="C298" sqref="C298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4981,7 +4981,7 @@
         <v>288</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0AA060-6DCE-4B79-B392-4C4C3C78119F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB970CF3-93FD-43BF-B9AD-2D7C0E21B522}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
-      <selection activeCell="C298" sqref="C298"/>
+      <selection activeCell="C299" sqref="C299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4992,7 +4992,7 @@
         <v>289</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB970CF3-93FD-43BF-B9AD-2D7C0E21B522}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3509B3F8-6B3A-40EF-A318-6A9269890D77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
-      <selection activeCell="C299" sqref="C299"/>
+      <selection activeCell="C301" sqref="C301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5014,7 +5014,7 @@
         <v>291</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3509B3F8-6B3A-40EF-A318-6A9269890D77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC343534-F613-439A-9834-F5FECDBCC948}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
-      <selection activeCell="C301" sqref="C301"/>
+      <selection activeCell="C302" sqref="C302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5025,7 +5025,7 @@
         <v>292</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC343534-F613-439A-9834-F5FECDBCC948}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB24015-ED00-41C0-924C-9D61544AD678}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
-      <selection activeCell="C302" sqref="C302"/>
+      <selection activeCell="C304" sqref="C304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5036,7 +5036,7 @@
         <v>293</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="21">
@@ -5047,7 +5047,7 @@
         <v>294</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB24015-ED00-41C0-924C-9D61544AD678}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65E71F2-553B-44AB-A9BE-1D352FECE34A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
-      <selection activeCell="C304" sqref="C304"/>
+      <selection activeCell="C305" sqref="C305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5058,7 +5058,7 @@
         <v>295</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65E71F2-553B-44AB-A9BE-1D352FECE34A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17A76FC-B484-4643-B01C-DCFDC3C3EC6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
-      <selection activeCell="C305" sqref="C305"/>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="C308" sqref="C308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5091,7 +5091,7 @@
         <v>298</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17A76FC-B484-4643-B01C-DCFDC3C3EC6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE10802-8365-4887-937E-F9C58A74D942}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="C308" sqref="C308"/>
+    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
+      <selection activeCell="C309" sqref="C309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5102,7 +5102,7 @@
         <v>299</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE10802-8365-4887-937E-F9C58A74D942}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6879C6B0-2916-4299-ADDC-B1A43A8D696A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
-      <selection activeCell="C309" sqref="C309"/>
+    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
+      <selection activeCell="C310" sqref="C310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5113,7 +5113,7 @@
         <v>300</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6879C6B0-2916-4299-ADDC-B1A43A8D696A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57308A3-07BF-4452-A450-E37ED289F93A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
-      <selection activeCell="C310" sqref="C310"/>
+      <selection activeCell="C311" sqref="C311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5124,7 +5124,7 @@
         <v>301</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57308A3-07BF-4452-A450-E37ED289F93A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4872539-C9E3-4C52-8480-3135D8991E33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
-      <selection activeCell="C311" sqref="C311"/>
+    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
+      <selection activeCell="C312" sqref="C312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5135,7 +5135,7 @@
         <v>302</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4872539-C9E3-4C52-8480-3135D8991E33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0F8E5A-7474-4538-84E2-1B95572322FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
-      <selection activeCell="C312" sqref="C312"/>
+    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
+      <selection activeCell="C306" sqref="C306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5069,7 +5069,7 @@
         <v>296</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0F8E5A-7474-4538-84E2-1B95572322FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C5E646-C00D-45DD-8FBE-CBB5BB3EF369}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="C306" sqref="C306"/>
+      <selection activeCell="C307" sqref="C307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5080,7 +5080,7 @@
         <v>297</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C5E646-C00D-45DD-8FBE-CBB5BB3EF369}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE856B5-977A-4AAA-B656-3A35D9D37848}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="C307" sqref="C307"/>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="C313" sqref="C313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5146,7 +5146,7 @@
         <v>303</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE856B5-977A-4AAA-B656-3A35D9D37848}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01588612-ED4A-4A6D-877F-627E9CF71636}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="C313" sqref="C313"/>
+      <selection activeCell="C314" sqref="C314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5157,7 +5157,7 @@
         <v>304</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01588612-ED4A-4A6D-877F-627E9CF71636}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2353C70E-4558-43F0-9333-C6FDB827E86B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="C314" sqref="C314"/>
+      <selection activeCell="C315" sqref="C315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5168,7 +5168,7 @@
         <v>305</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2353C70E-4558-43F0-9333-C6FDB827E86B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9553DDF1-A642-43F9-8184-90ED790CB946}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="C315" sqref="C315"/>
+      <selection activeCell="C316" sqref="C316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5179,7 +5179,7 @@
         <v>306</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9553DDF1-A642-43F9-8184-90ED790CB946}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3649A52-D436-4807-AEDC-011A994514C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="C316" sqref="C316"/>
+    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
+      <selection activeCell="C317" sqref="C317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5190,7 +5190,7 @@
         <v>307</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3649A52-D436-4807-AEDC-011A994514C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0796D2-AA96-4368-8A1C-6BD0A04BE955}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
-      <selection activeCell="C317" sqref="C317"/>
+      <selection activeCell="C318" sqref="C318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5201,7 +5201,7 @@
         <v>308</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0796D2-AA96-4368-8A1C-6BD0A04BE955}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C272B22-BF2C-41C8-882C-B304B216D048}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
-      <selection activeCell="C318" sqref="C318"/>
+    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="C320" sqref="C320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5223,7 +5223,7 @@
         <v>310</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C272B22-BF2C-41C8-882C-B304B216D048}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0838DAB-FA3F-448E-AD70-F53582702081}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="C320" sqref="C320"/>
+    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
+      <selection activeCell="C323" sqref="C323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5245,7 +5245,7 @@
         <v>312</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="21">
@@ -5256,7 +5256,7 @@
         <v>313</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0838DAB-FA3F-448E-AD70-F53582702081}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFA20A2-4A15-44BA-B4B5-ADB3FB437C15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
-      <selection activeCell="C323" sqref="C323"/>
+      <selection activeCell="C324" sqref="C324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5267,7 +5267,7 @@
         <v>314</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFA20A2-4A15-44BA-B4B5-ADB3FB437C15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7779FAB0-38B6-47AF-9E6A-7F311BF73EB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
-      <selection activeCell="C324" sqref="C324"/>
+    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
+      <selection activeCell="C325" sqref="C325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5278,7 +5278,7 @@
         <v>315</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7779FAB0-38B6-47AF-9E6A-7F311BF73EB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB494B33-F262-4C91-8AD4-3306BF8A63A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
-      <selection activeCell="C325" sqref="C325"/>
+      <selection activeCell="B326" sqref="B326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5289,7 +5289,7 @@
         <v>316</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB494B33-F262-4C91-8AD4-3306BF8A63A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5ADD37-FB60-4D6F-BB7A-9F921BBE5E53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
-      <selection activeCell="B326" sqref="B326"/>
+      <selection activeCell="C327" sqref="C327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5300,7 +5300,7 @@
         <v>317</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5ADD37-FB60-4D6F-BB7A-9F921BBE5E53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11FCA86-CCCA-409E-A660-2D9F50E66AD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
-      <selection activeCell="C327" sqref="C327"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="C328" sqref="C328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5311,7 +5311,7 @@
         <v>318</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11FCA86-CCCA-409E-A660-2D9F50E66AD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01145137-DC8E-42C3-999A-2DEDEF9430C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="C328" sqref="C328"/>
+      <selection activeCell="C329" sqref="C329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5322,7 +5322,7 @@
         <v>319</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01145137-DC8E-42C3-999A-2DEDEF9430C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F752DD-087E-4E1F-8646-62ECD5827A26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="C329" sqref="C329"/>
+      <selection activeCell="C332" sqref="C332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5355,7 +5355,7 @@
         <v>322</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F752DD-087E-4E1F-8646-62ECD5827A26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430777D1-D051-464A-B399-12F6612F4BB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="C332" sqref="C332"/>
+      <selection activeCell="C333" sqref="C333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5366,7 +5366,7 @@
         <v>323</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430777D1-D051-464A-B399-12F6612F4BB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392769A6-9CE9-4536-9CB0-93ACE0394D16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="C333" sqref="C333"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2355,7 +2355,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392769A6-9CE9-4536-9CB0-93ACE0394D16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30836E8A-05BB-4ED2-ADA6-F59DDF1E3635}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2333,7 +2333,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30836E8A-05BB-4ED2-ADA6-F59DDF1E3635}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4743D50A-EBC7-45E9-8950-165017015AB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2366,7 +2366,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4743D50A-EBC7-45E9-8950-165017015AB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6770AB7-AEE3-4135-A963-77F7F2E59346}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2377,7 +2377,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6770AB7-AEE3-4135-A963-77F7F2E59346}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844D5C43-5CFB-496B-B4FC-F4EA24E2945E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2388,7 +2388,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844D5C43-5CFB-496B-B4FC-F4EA24E2945E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CF09B3-E156-4D7F-94BE-B894F9152B27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2410,7 +2410,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CF09B3-E156-4D7F-94BE-B894F9152B27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAB70AD-0E63-4EE2-86D9-E3F58FA24DE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
+      <selection activeCell="C336" sqref="C336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5385,7 +5385,7 @@
         <v>325</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAB70AD-0E63-4EE2-86D9-E3F58FA24DE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A3C192-CA86-409A-A390-0BD6443058E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
-      <selection activeCell="C336" sqref="C336"/>
+    <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
+      <selection activeCell="C337" sqref="C337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5396,7 +5396,7 @@
         <v>326</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A3C192-CA86-409A-A390-0BD6443058E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEA52A2-471B-47A0-83E7-89C1316ED03F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
-      <selection activeCell="C337" sqref="C337"/>
+      <selection activeCell="C338" sqref="C338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5407,7 +5407,7 @@
         <v>327</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEA52A2-471B-47A0-83E7-89C1316ED03F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62C2032-EBE0-4208-A62B-D0DB1A35FAF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
-      <selection activeCell="C338" sqref="C338"/>
+      <selection activeCell="C339" sqref="C339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5418,7 +5418,7 @@
         <v>328</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62C2032-EBE0-4208-A62B-D0DB1A35FAF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924E81FD-CFE5-4770-AEE6-A8B17D27DAF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
-      <selection activeCell="C339" sqref="C339"/>
+      <selection activeCell="C340" sqref="C340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5429,7 +5429,7 @@
         <v>329</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924E81FD-CFE5-4770-AEE6-A8B17D27DAF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7F8879-8FFC-4600-9AF5-3DEB4A4BDAE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
-      <selection activeCell="C340" sqref="C340"/>
+      <selection activeCell="C341" sqref="C341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5440,7 +5440,7 @@
         <v>330</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7F8879-8FFC-4600-9AF5-3DEB4A4BDAE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A921E5-E744-4E33-85B1-9822B2867F0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
-      <selection activeCell="C341" sqref="C341"/>
+    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
+      <selection activeCell="C342" sqref="C342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5451,7 +5451,7 @@
         <v>331</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A921E5-E744-4E33-85B1-9822B2867F0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB8CBBE-2620-4B97-ABE9-FE06B2379B08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
-      <selection activeCell="C342" sqref="C342"/>
+      <selection activeCell="C343" sqref="C343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5462,7 +5462,7 @@
         <v>332</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB8CBBE-2620-4B97-ABE9-FE06B2379B08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C331D98A-838E-41D3-AFA1-21BA4882FAAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
-      <selection activeCell="C343" sqref="C343"/>
+      <selection activeCell="C345" sqref="C345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5484,7 +5484,7 @@
         <v>334</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C331D98A-838E-41D3-AFA1-21BA4882FAAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB7F6FC-E370-4C57-A311-967A54EE7746}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
-      <selection activeCell="C345" sqref="C345"/>
+      <selection activeCell="C346" sqref="C346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5495,7 +5495,7 @@
         <v>335</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB7F6FC-E370-4C57-A311-967A54EE7746}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F251A02-E679-4B54-B064-99DC8108BEE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
-      <selection activeCell="C346" sqref="C346"/>
+    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="C347" sqref="C347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5506,7 +5506,7 @@
         <v>336</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F251A02-E679-4B54-B064-99DC8108BEE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC237E0-D56F-4F83-B311-2BA64FC82463}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="C347" sqref="C347"/>
+      <selection activeCell="C348" sqref="C348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5517,7 +5517,7 @@
         <v>337</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC237E0-D56F-4F83-B311-2BA64FC82463}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B1D805-C6FB-403E-BAFB-D60A906B6BC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="C348" sqref="C348"/>
+      <selection activeCell="C349" sqref="C349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5528,7 +5528,7 @@
         <v>338</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B1D805-C6FB-403E-BAFB-D60A906B6BC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7BECF9-43F8-4161-929A-9000D990DA08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="C349" sqref="C349"/>
+    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
+      <selection activeCell="C350" sqref="C350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5539,7 +5539,7 @@
         <v>339</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7BECF9-43F8-4161-929A-9000D990DA08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC90F6E-4CE9-46D9-9134-E34515D835AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
-      <selection activeCell="C350" sqref="C350"/>
+    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
+      <selection activeCell="C351" sqref="C351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5550,7 +5550,7 @@
         <v>340</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC90F6E-4CE9-46D9-9134-E34515D835AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA82572A-533F-41D6-99BF-2FD02E5200B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
-      <selection activeCell="C351" sqref="C351"/>
+    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="C353" sqref="C353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5572,7 +5572,7 @@
         <v>342</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA82572A-533F-41D6-99BF-2FD02E5200B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DF409B-B589-40B9-B478-FB2B4964A020}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="C353" sqref="C353"/>
+    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
+      <selection activeCell="C352" sqref="C352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5473,7 +5473,7 @@
         <v>333</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="21">
@@ -5561,7 +5561,7 @@
         <v>341</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DF409B-B589-40B9-B478-FB2B4964A020}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A35F51D-0A71-4B56-A575-B24A93DCA44A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
-      <selection activeCell="C352" sqref="C352"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2399,7 +2399,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A35F51D-0A71-4B56-A575-B24A93DCA44A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AEB0A8-3166-48AD-9C1E-3406557BF72C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
+      <selection activeCell="C356" sqref="C356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5591,7 +5591,7 @@
         <v>344</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AEB0A8-3166-48AD-9C1E-3406557BF72C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4230595B-27CA-4445-B90E-7616E3C8BC04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
-      <selection activeCell="C356" sqref="C356"/>
+      <selection activeCell="C358" sqref="C358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5613,7 +5613,7 @@
         <v>346</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4230595B-27CA-4445-B90E-7616E3C8BC04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518801C1-9C2F-4363-B13B-65849E24288B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
-      <selection activeCell="C358" sqref="C358"/>
+      <selection activeCell="C357" sqref="C357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5602,7 +5602,7 @@
         <v>345</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518801C1-9C2F-4363-B13B-65849E24288B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89BC8D4-0E8E-4429-A1A6-58C818DBB3FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
-      <selection activeCell="C357" sqref="C357"/>
+      <selection activeCell="C360" sqref="C360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5635,7 +5635,7 @@
         <v>348</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89BC8D4-0E8E-4429-A1A6-58C818DBB3FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B04FBA3-DFCA-48B3-BFDB-45DEF5BE1739}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
-      <selection activeCell="C360" sqref="C360"/>
+      <selection activeCell="C359" sqref="C359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5624,7 +5624,7 @@
         <v>347</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B04FBA3-DFCA-48B3-BFDB-45DEF5BE1739}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCE8EA8-924D-41DC-A93D-9215528F8729}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
-      <selection activeCell="C359" sqref="C359"/>
+      <selection activeCell="C361" sqref="C361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5646,7 +5646,7 @@
         <v>349</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCE8EA8-924D-41DC-A93D-9215528F8729}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D06529-B21C-401D-BC14-69D78FBCE66B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
-      <selection activeCell="C361" sqref="C361"/>
+      <selection activeCell="C363" sqref="C363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5668,7 +5668,7 @@
         <v>351</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D06529-B21C-401D-BC14-69D78FBCE66B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E0E8B6-5F99-46C6-A29F-FE6A65D5DE5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
-      <selection activeCell="C363" sqref="C363"/>
+    <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
+      <selection activeCell="C362" sqref="C362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5657,7 +5657,7 @@
         <v>350</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E0E8B6-5F99-46C6-A29F-FE6A65D5DE5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAF4CF3-521B-4EB7-AE7A-7859CD9CE09A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
-      <selection activeCell="C362" sqref="C362"/>
+      <selection activeCell="C364" sqref="C364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5679,7 +5679,7 @@
         <v>352</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAF4CF3-521B-4EB7-AE7A-7859CD9CE09A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D8ADFF-7953-4932-ACB5-4D1EE357958F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
-      <selection activeCell="C364" sqref="C364"/>
+      <selection activeCell="C365" sqref="C365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5690,7 +5690,7 @@
         <v>353</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D8ADFF-7953-4932-ACB5-4D1EE357958F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB630CD-A17D-473A-97C5-FB438AA3501A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
-      <selection activeCell="C365" sqref="C365"/>
+      <selection activeCell="C366" sqref="C366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5701,7 +5701,7 @@
         <v>354</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB630CD-A17D-473A-97C5-FB438AA3501A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93957AA-5480-42FA-AEB5-4869884AB5E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
-      <selection activeCell="C366" sqref="C366"/>
+      <selection activeCell="C368" sqref="C368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5723,7 +5723,7 @@
         <v>356</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93957AA-5480-42FA-AEB5-4869884AB5E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3716A688-791B-4418-8416-2952641BDD2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
-      <selection activeCell="C368" sqref="C368"/>
+    <sheetView tabSelected="1" topLeftCell="A363" workbookViewId="0">
+      <selection activeCell="C367" sqref="C367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5712,7 +5712,7 @@
         <v>355</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3716A688-791B-4418-8416-2952641BDD2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2237F99E-DDC0-4D24-B4DB-885EB2129E41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A363" workbookViewId="0">
-      <selection activeCell="C367" sqref="C367"/>
+      <selection activeCell="C369" sqref="C369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5734,7 +5734,7 @@
         <v>357</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2237F99E-DDC0-4D24-B4DB-885EB2129E41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B282CF1-610B-4812-8BD5-F9599E039109}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A363" workbookViewId="0">
-      <selection activeCell="C369" sqref="C369"/>
+      <selection activeCell="C370" sqref="C370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5745,7 +5745,7 @@
         <v>358</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B282CF1-610B-4812-8BD5-F9599E039109}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC283ED-D620-454C-A04A-3555C9F488D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A363" workbookViewId="0">
-      <selection activeCell="C370" sqref="C370"/>
+      <selection activeCell="C371" sqref="C371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5756,7 +5756,7 @@
         <v>359</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC283ED-D620-454C-A04A-3555C9F488D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AEB38A-B366-42EE-B09D-856947F28952}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A363" workbookViewId="0">
-      <selection activeCell="C371" sqref="C371"/>
+    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
+      <selection activeCell="C372" sqref="C372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5767,7 +5767,7 @@
         <v>360</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AEB38A-B366-42EE-B09D-856947F28952}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564DB365-8D48-4C47-BBBB-6FDB8D6696BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
-      <selection activeCell="C372" sqref="C372"/>
+    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
+      <selection activeCell="C410" sqref="C410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6157,7 +6157,7 @@
         <v>394</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564DB365-8D48-4C47-BBBB-6FDB8D6696BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6187D6-270F-4FEB-A2CF-44D604E18153}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="C410" sqref="C410"/>
+      <selection activeCell="C411" sqref="C411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6168,7 +6168,7 @@
         <v>395</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6187D6-270F-4FEB-A2CF-44D604E18153}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C6245F-D436-4D84-ABE5-5F61F5BE4ADC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="C411" sqref="C411"/>
+      <selection activeCell="C412" sqref="C412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6179,7 +6179,7 @@
         <v>396</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C6245F-D436-4D84-ABE5-5F61F5BE4ADC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E83C3ED-7D90-4A30-9EC3-D2B9AB50D095}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="C412" sqref="C412"/>
+      <selection activeCell="C413" sqref="C413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6190,7 +6190,7 @@
         <v>397</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E83C3ED-7D90-4A30-9EC3-D2B9AB50D095}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D55E56-8484-4E27-AF4F-01CDFDA065F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="C413" sqref="C413"/>
+      <selection activeCell="C414" sqref="C414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6201,7 +6201,7 @@
         <v>398</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D55E56-8484-4E27-AF4F-01CDFDA065F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851105C1-4CC7-4864-A76F-FB9DCB41A41E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="C414" sqref="C414"/>
+      <selection activeCell="C415" sqref="C415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6212,7 +6212,7 @@
         <v>399</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851105C1-4CC7-4864-A76F-FB9DCB41A41E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305D04C5-64A5-452E-B8D6-2A981F3582CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="C415" sqref="C415"/>
+      <selection activeCell="C416" sqref="C416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6223,7 +6223,7 @@
         <v>400</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305D04C5-64A5-452E-B8D6-2A981F3582CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F77873-EDF2-4156-87DB-821366262E54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="C416" sqref="C416"/>
+    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
+      <selection activeCell="C417" sqref="C417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6234,7 +6234,7 @@
         <v>273</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F77873-EDF2-4156-87DB-821366262E54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252E6018-DBC8-4F75-A742-973B66ADC8EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="C417" sqref="C417"/>
+    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
+      <selection activeCell="C418" sqref="C418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6245,7 +6245,7 @@
         <v>401</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252E6018-DBC8-4F75-A742-973B66ADC8EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5BE05D-E4B2-40CE-91C4-A7777874378B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="C418" sqref="C418"/>
+      <selection activeCell="C420" sqref="C420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6267,7 +6267,7 @@
         <v>403</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5BE05D-E4B2-40CE-91C4-A7777874378B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49A2C28-8E00-447A-B40F-FB45A1337B46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="C420" sqref="C420"/>
+      <selection activeCell="C421" sqref="C421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6278,7 +6278,7 @@
         <v>404</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49A2C28-8E00-447A-B40F-FB45A1337B46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D5DA67-C419-4F86-A268-41EED4E0BE30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="C421" sqref="C421"/>
+      <selection activeCell="C422" sqref="C422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6289,7 +6289,7 @@
         <v>405</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D5DA67-C419-4F86-A268-41EED4E0BE30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E5372E-EE74-4ED1-BA1B-A75BAE057F7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="C422" sqref="C422"/>
+    <sheetView tabSelected="1" topLeftCell="A416" workbookViewId="0">
+      <selection activeCell="C424" sqref="C424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6300,7 +6300,7 @@
         <v>406</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="21">
@@ -6311,7 +6311,7 @@
         <v>407</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="21">
